--- a/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-immunization.xlsx
@@ -448,7 +448,7 @@
     <t>dueDateOfNextDose</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/StructureDefinition/JP_Immunization_DueDateOfNextDose}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_DueDateOfNextDose}
 </t>
   </si>
   <si>
@@ -465,7 +465,7 @@
     <t>manufacturedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_ManufacturedDate}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate}
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>certificatedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_CertificatedDate}
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_CertificatedDate}
 </t>
   </si>
   <si>
